--- a/wcsm9automationproject/src/main/resources/ActitmeTestData.xlsx
+++ b/wcsm9automationproject/src/main/resources/ActitmeTestData.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\automationRepository\wcsm9automationproject\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A09BD63-913F-4516-A178-1D93E833AF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="validpassword" sheetId="1" r:id="rId1"/>
+    <sheet name="invalidpassword" sheetId="2" r:id="rId2"/>
+    <sheet name="customer&amp;project" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +26,49 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Customer_Name</t>
+  </si>
+  <si>
+    <t>Project_Name</t>
+  </si>
+  <si>
+    <t>Yes_Bank</t>
+  </si>
+  <si>
+    <t>Automation web Application</t>
+  </si>
+  <si>
+    <t>ad_min</t>
+  </si>
+  <si>
+    <t>mana_ger</t>
+  </si>
+  <si>
+    <t>ad123</t>
+  </si>
+  <si>
+    <t>mana123</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +78,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +100,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +402,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEB5037-C21D-4CC0-900D-C394B7A86995}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5553E8-B727-49C4-9A7B-34BBD12C86F4}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>